--- a/db/db-challenge2/Chatwork_データベース定義書.xlsx
+++ b/db/db-challenge2/Chatwork_データベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23427"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A4AB4FF-68FA-4CA2-AD9D-DA63EB33BACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FE59327-861D-4463-ACD1-4C543CAE3936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザーテーブル" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="89">
   <si>
     <t>テーブル名</t>
   </si>
@@ -237,9 +237,6 @@
     <t>◯</t>
   </si>
   <si>
-    <t>重複なし</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -261,7 +258,7 @@
     <t>勤務先電話番号</t>
   </si>
   <si>
-    <t>phone</t>
+    <t>office_telephone</t>
   </si>
   <si>
     <t>携帯電話番号</t>
@@ -273,7 +270,7 @@
     <t>論理削除</t>
   </si>
   <si>
-    <t>delete_flag</t>
+    <t>is_deleted</t>
   </si>
   <si>
     <t>tinyint</t>
@@ -285,7 +282,7 @@
     <t>作成日時</t>
   </si>
   <si>
-    <t>created</t>
+    <t>created_at</t>
   </si>
   <si>
     <t>datetime</t>
@@ -294,10 +291,7 @@
     <t>更新日時</t>
   </si>
   <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>timestamp</t>
+    <t>updated_at</t>
   </si>
   <si>
     <t>rooms</t>
@@ -342,6 +336,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>FK</t>
+  </si>
+  <si>
     <t>更新者id</t>
   </si>
   <si>
@@ -363,7 +360,7 @@
     <t>users_id</t>
   </si>
   <si>
-    <t>外部キー</t>
+    <t>PK,FK</t>
   </si>
   <si>
     <t>ルームid(FK)</t>
@@ -375,7 +372,7 @@
     <t>参加日時</t>
   </si>
   <si>
-    <t>join_at</t>
+    <t>joined_at</t>
   </si>
   <si>
     <t>posts</t>
@@ -387,9 +384,6 @@
     <t>投稿者id(FK)</t>
   </si>
   <si>
-    <t>post_user_id</t>
-  </si>
-  <si>
     <t>チャットルームid(FK)</t>
   </si>
   <si>
@@ -408,9 +402,6 @@
     <t>投稿日時</t>
   </si>
   <si>
-    <t>uodated</t>
-  </si>
-  <si>
     <t>tasks</t>
   </si>
   <si>
@@ -423,7 +414,7 @@
     <t>担当者id(FK)</t>
   </si>
   <si>
-    <t>personel_id</t>
+    <t>assigned_user_id</t>
   </si>
   <si>
     <t>期限</t>
@@ -792,7 +783,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -944,9 +935,7 @@
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
       <c r="A7" s="15"/>
@@ -955,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
@@ -981,10 +970,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>22</v>
@@ -1007,10 +996,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
@@ -1031,10 +1020,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
@@ -1055,10 +1044,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
@@ -1079,13 +1068,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
@@ -1099,7 +1088,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -1109,13 +1098,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1133,13 +1122,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -1234,9 +1223,9 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1259,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -1276,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1373,10 +1362,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -1390,9 +1379,7 @@
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
       <c r="A7" s="15"/>
@@ -1401,10 +1388,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
@@ -1425,13 +1412,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="9">
         <v>1</v>
@@ -1445,7 +1432,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -1455,13 +1442,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
@@ -1475,7 +1462,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -1485,13 +1472,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
@@ -1505,7 +1492,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -1515,13 +1502,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
@@ -1539,13 +1526,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="9">
         <v>11</v>
@@ -1554,9 +1541,11 @@
       <c r="H12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J12" s="13"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
       <c r="A13" s="15"/>
@@ -1565,13 +1554,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1589,13 +1578,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="9">
         <v>11</v>
@@ -1604,7 +1593,9 @@
       <c r="H14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
@@ -1694,7 +1685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1718,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -1728,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1738,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1781,10 +1772,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
@@ -1797,14 +1788,12 @@
         <v>17</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
       <c r="B6" s="3">
@@ -1812,13 +1801,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="9">
         <v>11</v>
@@ -1828,14 +1817,12 @@
         <v>23</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
       <c r="B7" s="3">
@@ -1843,13 +1830,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
@@ -1890,7 +1877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1914,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -1924,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2004,13 +1991,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="9">
         <v>11</v>
@@ -2019,11 +2006,11 @@
       <c r="H6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
       <c r="B7" s="3">
@@ -2031,13 +2018,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="9">
         <v>11</v>
@@ -2046,11 +2033,11 @@
       <c r="H7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
       <c r="B8" s="3">
@@ -2058,10 +2045,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>22</v>
@@ -2083,10 +2070,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
@@ -2106,13 +2093,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
@@ -2126,7 +2113,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -2135,13 +2122,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
@@ -2158,13 +2145,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2181,13 +2168,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" s="10">
         <v>11</v>
@@ -2196,7 +2183,9 @@
       <c r="H13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
@@ -2228,9 +2217,9 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2254,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -2264,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2344,10 +2333,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
@@ -2369,13 +2358,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="9">
         <v>11</v>
@@ -2384,11 +2373,11 @@
       <c r="H7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
       <c r="B8" s="3">
@@ -2396,13 +2385,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="9">
         <v>11</v>
@@ -2411,11 +2400,11 @@
       <c r="H8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
       <c r="B9" s="3">
@@ -2423,13 +2412,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
@@ -2444,13 +2433,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
@@ -2464,7 +2453,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -2473,13 +2462,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="F11" s="9">
         <v>1</v>
@@ -2493,7 +2482,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -2502,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
@@ -2525,13 +2514,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="F13" s="9">
         <v>11</v>
@@ -2540,9 +2529,11 @@
       <c r="H13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J13" s="13"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
       <c r="B14" s="3">
@@ -2550,13 +2541,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2573,13 +2564,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="10">
         <v>11</v>
@@ -2588,7 +2579,9 @@
       <c r="H15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
@@ -2621,7 +2614,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/db/db-challenge2/Chatwork_データベース定義書.xlsx
+++ b/db/db-challenge2/Chatwork_データベース定義書.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FE59327-861D-4463-ACD1-4C543CAE3936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBBCC29D-C16F-4DDA-8097-859A35B076F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザーテーブル" sheetId="4" r:id="rId1"/>
@@ -315,7 +315,7 @@
     <t>send_file</t>
   </si>
   <si>
-    <t>1:ファイル送信不可</t>
+    <t>0:ファイル送信禁止</t>
   </si>
   <si>
     <t>ダイレクトチャット</t>
@@ -1223,9 +1223,9 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>23</v>
@@ -1877,7 +1877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2217,7 +2217,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>

--- a/db/db-challenge2/Chatwork_データベース定義書.xlsx
+++ b/db/db-challenge2/Chatwork_データベース定義書.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23507"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBBCC29D-C16F-4DDA-8097-859A35B076F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4AECC49-5F58-44FD-AD9E-0FD4C5020AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザーテーブル" sheetId="4" r:id="rId1"/>
@@ -312,7 +312,7 @@
     <t>ファイル送信</t>
   </si>
   <si>
-    <t>send_file</t>
+    <t>allow_send_file</t>
   </si>
   <si>
     <t>0:ファイル送信禁止</t>
@@ -1225,7 +1225,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
